--- a/Engine/Tables/StrTable.xlsx
+++ b/Engine/Tables/StrTable.xlsx
@@ -13,901 +13,901 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Korean</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
+    <t>에디터 종료 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_QUIT_P_MSG</t>
   </si>
   <si>
-    <t>에디터 종료 팝업 메세지</t>
-  </si>
-  <si>
     <t>에디터를 종료하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to quit the editor?</t>
   </si>
   <si>
+    <t>에디터 리셋 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_RESET_P_MSG</t>
   </si>
   <si>
-    <t>에디터 리셋 팝업 메세지</t>
-  </si>
-  <si>
     <t>에디터를 리셋하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to reset the editor?</t>
   </si>
   <si>
+    <t>에디터 세트 A 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_A_SET_P_MSG</t>
   </si>
   <si>
-    <t>에디터 세트 A 팝업 메세지</t>
-  </si>
-  <si>
     <t>A 세트 를 설정하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to set up the A set?</t>
   </si>
   <si>
+    <t>에디터 세트 B 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_B_SET_P_MSG</t>
   </si>
   <si>
-    <t>에디터 세트 B 팝업 메세지</t>
-  </si>
-  <si>
     <t>B 세트 를 설정하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to set up the B set?</t>
   </si>
   <si>
-    <t>EDITOR_TABLE_RL_MSG</t>
-  </si>
-  <si>
-    <t>에디터 테이블 다시 로드 메세지</t>
-  </si>
-  <si>
-    <t>테이블을 다시 로드하시겠습니까?</t>
-  </si>
-  <si>
-    <t>Do you want to reload the table?</t>
+    <t>에디터 테이블 로드 메세지</t>
+  </si>
+  <si>
+    <t>EDITOR_TABLE_LP_MSG</t>
+  </si>
+  <si>
+    <t>테이블을 로드하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Do you want to load the table?</t>
+  </si>
+  <si>
+    <t>에디터 레벨 제거 팝업 메세지</t>
   </si>
   <si>
     <t>EDITOR_REMOVE_LP_MSG</t>
   </si>
   <si>
-    <t>에디터 레벨 제거 팝업 메세지</t>
-  </si>
-  <si>
     <t>레벨을 제거하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to remove the level?</t>
   </si>
   <si>
+    <t>에디터 스테이지 제거 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_REMOVE_SP_MSG</t>
   </si>
   <si>
-    <t>에디터 스테이지 제거 팝업 메세지</t>
-  </si>
-  <si>
     <t>스테이지를 제거하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to remove the stage?</t>
   </si>
   <si>
+    <t>에디터 챕터 제거 팝업 메세지</t>
+  </si>
+  <si>
     <t>EDITOR_REMOVE_CP_MSG</t>
   </si>
   <si>
-    <t>에디터 챕터 제거 팝업 메세지</t>
-  </si>
-  <si>
     <t>챕터를 제거하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to remove the chapter?</t>
   </si>
   <si>
+    <t>종료 팝업 메세지</t>
+  </si>
+  <si>
     <t>QUIT_P_MSG</t>
   </si>
   <si>
-    <t>종료 팝업 메세지</t>
-  </si>
-  <si>
     <t>게임을 종료하시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to quit the game?</t>
   </si>
   <si>
+    <t>그만두기 팝업 메세지</t>
+  </si>
+  <si>
     <t>LEAVE_P_MSG</t>
   </si>
   <si>
-    <t>그만두기 팝업 메세지</t>
-  </si>
-  <si>
     <t>게임을 그만두시겠습니까?</t>
   </si>
   <si>
     <t>Do you want to leave the game?</t>
   </si>
   <si>
+    <t>업데이트 팝업 메세지</t>
+  </si>
+  <si>
     <t>UPDATE_P_MSG</t>
   </si>
   <si>
-    <t>업데이트 팝업 메세지</t>
-  </si>
-  <si>
     <t>새로운 버전이 출시되었습니다.\n업데이트 하시겠습니까?</t>
   </si>
   <si>
     <t>A new version has been released.\nWould you like to update it?</t>
   </si>
   <si>
+    <t>로드 팝업 메세지</t>
+  </si>
+  <si>
     <t>LOAD_P_MSG</t>
   </si>
   <si>
-    <t>로드 팝업 메세지</t>
-  </si>
-  <si>
     <t>진행 상황을 로드하시겠습니까?\n&lt;color=#ff0000ff&gt;&lt;size=24&gt;(로드 시 현재 진행 상황은 복구 할 수 없습니다)&lt;/size&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>Do you want to load progress?\n&lt;color=#ff0000ff&gt;&lt;size=24&gt;(When loading, current progress cannot be recovered)&lt;/size&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>저장 팝업 메세지</t>
+  </si>
+  <si>
     <t>SAVE_P_MSG</t>
   </si>
   <si>
-    <t>저장 팝업 메세지</t>
-  </si>
-  <si>
     <t>진행 상황을 저장하시겠습니까?\n&lt;color=#ff0000ff&gt;&lt;size=24&gt;(저장 시 이전 진행 상황은 복구 할 수 없습니다)&lt;/size&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>Do you want to save progress?\n&lt;color=#ff0000ff&gt;&lt;size=24&gt;(When saving, previous progress cannot be recovered)&lt;/size&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>추적 설명 팝업 제목</t>
+  </si>
+  <si>
     <t>TRACKING_DP_TITLE</t>
   </si>
   <si>
-    <t>추적 설명 팝업 제목</t>
-  </si>
-  <si>
     <t>알림</t>
   </si>
   <si>
     <t>Notice</t>
   </si>
   <si>
+    <t>추적 설명 팝업 메세지</t>
+  </si>
+  <si>
     <t>TRACKING_DP_MSG</t>
   </si>
   <si>
-    <t>추적 설명 팝업 메세지</t>
-  </si>
-  <si>
     <t>앱 추적 승인</t>
   </si>
   <si>
     <t>Allow tracking on the\nnext screen for</t>
   </si>
   <si>
+    <t>추적 설명 팝업 설명 메세지 1</t>
+  </si>
+  <si>
     <t>TRACKING_DP_DESC_MSG_01</t>
   </si>
   <si>
-    <t>추적 설명 팝업 설명 메세지 1</t>
-  </si>
-  <si>
     <t>특별한 프로모션을 제공해\n드립니다</t>
   </si>
   <si>
     <t>Special offers and promotions\njust for you</t>
   </si>
   <si>
+    <t>추적 설명 팝업 설명 메세지 2</t>
+  </si>
+  <si>
     <t>TRACKING_DP_DESC_MSG_02</t>
   </si>
   <si>
-    <t>추적 설명 팝업 설명 메세지 2</t>
-  </si>
-  <si>
     <t>관심사에 맞는 광고를 보여\n드립니다</t>
   </si>
   <si>
     <t>Advertisements that match\nyour interests</t>
   </si>
   <si>
+    <t>추적 설명 팝업 설명 메세지 3</t>
+  </si>
+  <si>
     <t>TRACKING_DP_DESC_MSG_03</t>
   </si>
   <si>
-    <t>추적 설명 팝업 설명 메세지 3</t>
-  </si>
-  <si>
     <t>개인화 된 경험을 향상 시켜\n드립니다</t>
   </si>
   <si>
     <t>An improved personalized\nexperience over time</t>
   </si>
   <si>
+    <t>공용 로그인 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOGIN_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 로그인 성공 메세지</t>
-  </si>
-  <si>
     <t>로그인했습니다</t>
   </si>
   <si>
     <t>You have successfully login</t>
   </si>
   <si>
+    <t>공용 로그인 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOGIN_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 로그인 실패 메세지</t>
-  </si>
-  <si>
     <t>로그인에 실패했습니다</t>
   </si>
   <si>
     <t>You have failed to login</t>
   </si>
   <si>
+    <t>공용 로그아웃 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOGOUT_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 로그아웃 성공 메세지</t>
-  </si>
-  <si>
     <t>로그아웃했습니다</t>
   </si>
   <si>
     <t>You have successfully logout</t>
   </si>
   <si>
+    <t>공용 로그아웃 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOGOUT_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 로그아웃 실패 메세지</t>
-  </si>
-  <si>
     <t>로그아웃에 실패했습니다</t>
   </si>
   <si>
     <t>You have failed to logout</t>
   </si>
   <si>
+    <t>공용 로드 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOAD_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 로드 성공 메세지</t>
-  </si>
-  <si>
     <t>진행 상황을 로드했습니다</t>
   </si>
   <si>
     <t>You have successfully loaded progress</t>
   </si>
   <si>
+    <t>공용 로드 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_LOAD_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 로드 실패 메세지</t>
-  </si>
-  <si>
     <t>진행 상황 로드에 실패했습니다</t>
   </si>
   <si>
     <t>You have failed to load progress</t>
   </si>
   <si>
+    <t>공용 저장 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_SAVE_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 저장 성공 메세지</t>
-  </si>
-  <si>
     <t>진행 상황을 저장했습니다</t>
   </si>
   <si>
     <t>You have successfully saved progress</t>
   </si>
   <si>
+    <t>공용 저장 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_SAVE_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 저장 실패 메세지</t>
-  </si>
-  <si>
     <t>진행 상황 저장에 실패했습니다</t>
   </si>
   <si>
     <t>You have failed to save progress</t>
   </si>
   <si>
+    <t>공용 결제 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_PURCHASE_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 결제 성공 메세지</t>
-  </si>
-  <si>
     <t>해당 상품을 구입했습니다</t>
   </si>
   <si>
     <t>You have successfully purchased this product</t>
   </si>
   <si>
+    <t>공용 결제 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_PURCHASE_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 결제 실패 메세지</t>
-  </si>
-  <si>
     <t>해당 상품 구입에 실패했습니다</t>
   </si>
   <si>
     <t>You have failed to purchase this product</t>
   </si>
   <si>
+    <t>공용 복원 성공 메세지</t>
+  </si>
+  <si>
     <t>COMMON_RESTORE_SUCCESS_MSG</t>
   </si>
   <si>
-    <t>공용 복원 성공 메세지</t>
-  </si>
-  <si>
     <t>상품을 복원했습니다</t>
   </si>
   <si>
     <t>The product has been restored</t>
   </si>
   <si>
+    <t>공용 복원 실패 메세지</t>
+  </si>
+  <si>
     <t>COMMON_RESTORE_FAIL_MSG</t>
   </si>
   <si>
-    <t>공용 복원 실패 메세지</t>
-  </si>
-  <si>
     <t>상품 복원에 실패했습니다</t>
   </si>
   <si>
     <t>Failed to restore the product</t>
   </si>
   <si>
+    <t>공용 확인 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_OK_TEXT</t>
   </si>
   <si>
-    <t>공용 확인 텍스트</t>
-  </si>
-  <si>
     <t>확인</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
+    <t>공용 취소 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_CANCEL_TEXT</t>
   </si>
   <si>
-    <t>공용 취소 텍스트</t>
-  </si>
-  <si>
     <t>취소</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
+    <t>공용 동의 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_AGREE_TEXT</t>
   </si>
   <si>
-    <t>공용 동의 텍스트</t>
-  </si>
-  <si>
     <t>동의</t>
   </si>
   <si>
     <t>Agree</t>
   </si>
   <si>
+    <t>공용 결과 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_RESULT_TEXT</t>
   </si>
   <si>
-    <t>공용 결과 텍스트</t>
-  </si>
-  <si>
     <t>결과</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
+    <t>공용 획득 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_GET_TEXT</t>
   </si>
   <si>
-    <t>공용 획득 텍스트</t>
-  </si>
-  <si>
     <t>획득</t>
   </si>
   <si>
     <t>Get</t>
   </si>
   <si>
+    <t>공용 상점 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_STORE_TEXT</t>
   </si>
   <si>
-    <t>공용 상점 텍스트</t>
-  </si>
-  <si>
     <t>상점</t>
   </si>
   <si>
     <t>Store</t>
   </si>
   <si>
+    <t>공용 이벤트 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_EVENT_TEXT</t>
   </si>
   <si>
-    <t>공용 이벤트 텍스트</t>
-  </si>
-  <si>
     <t>이벤트</t>
   </si>
   <si>
     <t>Event</t>
   </si>
   <si>
+    <t>공용 다음 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_NEXT_TEXT</t>
   </si>
   <si>
-    <t>공용 다음 텍스트</t>
-  </si>
-  <si>
     <t>다음</t>
   </si>
   <si>
     <t>Next</t>
   </si>
   <si>
+    <t>공용 홈 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_HOME_TEXT</t>
   </si>
   <si>
-    <t>공용 홈 텍스트</t>
-  </si>
-  <si>
     <t>홈</t>
   </si>
   <si>
     <t>Home</t>
   </si>
   <si>
+    <t>공용 플레이 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_PLAY_TEXT</t>
   </si>
   <si>
-    <t>공용 플레이 텍스트</t>
-  </si>
-  <si>
     <t>플레이</t>
   </si>
   <si>
     <t>Play</t>
   </si>
   <si>
+    <t>공용 재시도 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_RETRY_TEXT</t>
   </si>
   <si>
-    <t>공용 재시도 텍스트</t>
-  </si>
-  <si>
     <t>재시도</t>
   </si>
   <si>
     <t>Retry</t>
   </si>
   <si>
+    <t>공용 나가기 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_LEAVE_TEXT</t>
   </si>
   <si>
-    <t>공용 나가기 텍스트</t>
-  </si>
-  <si>
     <t>나가기</t>
   </si>
   <si>
     <t>Leave</t>
   </si>
   <si>
+    <t>공용 동기화 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_SYNC_TEXT</t>
   </si>
   <si>
-    <t>공용 동기화 텍스트</t>
-  </si>
-  <si>
     <t>동기화</t>
   </si>
   <si>
     <t>Sync</t>
   </si>
   <si>
+    <t>공용 로그인 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_LOGIN_TEXT</t>
   </si>
   <si>
-    <t>공용 로그인 텍스트</t>
-  </si>
-  <si>
     <t>로그인</t>
   </si>
   <si>
     <t>Login</t>
   </si>
   <si>
+    <t>공용 애플 로그인 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_APPLE_LOGIN_TEXT</t>
   </si>
   <si>
-    <t>공용 애플 로그인 텍스트</t>
-  </si>
-  <si>
     <t>애플 로그인</t>
   </si>
   <si>
     <t>Sign in with Apple</t>
   </si>
   <si>
+    <t>공용 페이스 북 로그인</t>
+  </si>
+  <si>
     <t>COMMON_FACEBOOK_LOGIN_TEXT</t>
   </si>
   <si>
-    <t>공용 페이스 북 로그인</t>
-  </si>
-  <si>
     <t>페이스 북 로그인</t>
   </si>
   <si>
     <t>Sign in with Facebook</t>
   </si>
   <si>
+    <t>공용 로그아웃 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_LOGOUT_TEXT</t>
   </si>
   <si>
-    <t>공용 로그아웃 텍스트</t>
-  </si>
-  <si>
     <t>로그아웃</t>
   </si>
   <si>
     <t>Logout</t>
   </si>
   <si>
+    <t>공용 연결 해제 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_DISCONNECT_TEXT</t>
   </si>
   <si>
-    <t>공용 연결 해제 텍스트</t>
-  </si>
-  <si>
     <t>연결 해제</t>
   </si>
   <si>
     <t>Disconnect</t>
   </si>
   <si>
+    <t>공용 로드 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_LOAD_TEXT</t>
   </si>
   <si>
-    <t>공용 로드 텍스트</t>
-  </si>
-  <si>
     <t>불러오기</t>
   </si>
   <si>
     <t>Load</t>
   </si>
   <si>
+    <t>공용 저장 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_SAVE_TEXT</t>
   </si>
   <si>
-    <t>공용 저장 텍스트</t>
-  </si>
-  <si>
     <t>저장하기</t>
   </si>
   <si>
     <t>Save</t>
   </si>
   <si>
+    <t>공용 이어하기 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_CONTINUE_TEXT</t>
   </si>
   <si>
-    <t>공용 이어하기 텍스트</t>
-  </si>
-  <si>
     <t>이어하기</t>
   </si>
   <si>
     <t>Continue</t>
   </si>
   <si>
+    <t>공용 알림 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_NOTI_TEXT</t>
   </si>
   <si>
-    <t>공용 알림 텍스트</t>
+    <t>공용 평가 텍스트</t>
   </si>
   <si>
     <t>COMMON_REVIEW_TEXT</t>
   </si>
   <si>
-    <t>공용 평가 텍스트</t>
-  </si>
-  <si>
     <t>평가</t>
   </si>
   <si>
     <t>Review</t>
   </si>
   <si>
+    <t>공용 지원 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_SUPPORTS_TEXT</t>
   </si>
   <si>
-    <t>공용 지원 텍스트</t>
-  </si>
-  <si>
     <t>문의</t>
   </si>
   <si>
     <t>Supports</t>
   </si>
   <si>
+    <t>공용 배경음 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_BG_SND_TEXT</t>
   </si>
   <si>
-    <t>공용 배경음 텍스트</t>
-  </si>
-  <si>
     <t>배경음</t>
   </si>
   <si>
     <t>BGM</t>
   </si>
   <si>
+    <t>공용 효과음 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_FX_SNDS_TEXT</t>
   </si>
   <si>
-    <t>공용 효과음 텍스트</t>
-  </si>
-  <si>
     <t>효과음</t>
   </si>
   <si>
     <t>SFX</t>
   </si>
   <si>
+    <t>공용 광고 시청 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_WATCH_ADS_TEXT</t>
   </si>
   <si>
-    <t>공용 광고 시청 텍스트</t>
-  </si>
-  <si>
     <t>광고 시청</t>
   </si>
   <si>
     <t>Watch Ads</t>
   </si>
   <si>
+    <t>공용 결제 복원 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_RESTORE_PAYMENT_TEXT</t>
   </si>
   <si>
-    <t>공용 결제 복원 텍스트</t>
-  </si>
-  <si>
     <t>결제 복원</t>
   </si>
   <si>
     <t>Restore Payment</t>
   </si>
   <si>
+    <t>공용 레벨 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_LEVEL_TEXT</t>
   </si>
   <si>
-    <t>공용 레벨 텍스트</t>
-  </si>
-  <si>
     <t>레벨</t>
   </si>
   <si>
     <t>Level</t>
   </si>
   <si>
+    <t>공용 스테이지 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_STAGE_TEXT</t>
   </si>
   <si>
-    <t>공용 스테이지 텍스트</t>
-  </si>
-  <si>
     <t>스테이지</t>
   </si>
   <si>
     <t>Stage</t>
   </si>
   <si>
+    <t>공용 챕터 텍스트</t>
+  </si>
+  <si>
     <t>COMMON_CHAPTER_TEXT</t>
   </si>
   <si>
-    <t>공용 챕터 텍스트</t>
-  </si>
-  <si>
     <t>챕터</t>
   </si>
   <si>
     <t>Chapter</t>
   </si>
   <si>
+    <t>공용 레벨 번호 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_LEVEL_NUM_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 레벨 번호 텍스트 형식</t>
-  </si>
-  <si>
     <t>레벨 {0}</t>
   </si>
   <si>
     <t>Level {0}</t>
   </si>
   <si>
+    <t>공용 스테이지 번호 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_STAGE_NUM_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 스테이지 번호 텍스트 형식</t>
-  </si>
-  <si>
     <t>스테이지 {0}</t>
   </si>
   <si>
     <t>Stage {0}</t>
   </si>
   <si>
+    <t>공용 챕터 번호 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_CHAPTER_NUM_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 챕터 번호 텍스트 형식</t>
-  </si>
-  <si>
     <t>챕터 {0}</t>
   </si>
   <si>
     <t>Chapter {0}</t>
   </si>
   <si>
+    <t>공용 레벨 페이지 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_LEVEL_PAGE_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 레벨 페이지 텍스트 형식</t>
-  </si>
-  <si>
     <t>레벨 {0}/{1}</t>
   </si>
   <si>
     <t>Level {0}/{1}</t>
   </si>
   <si>
+    <t>공용 스테이지 페이지 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_STAGE_PAGE_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 스테이지 페이지 텍스트 형식</t>
-  </si>
-  <si>
     <t>스테이지 {0}/{1}</t>
   </si>
   <si>
     <t>Stage {0}/{1}</t>
   </si>
   <si>
+    <t>공용 챕터 페이지 텍스트 형식</t>
+  </si>
+  <si>
     <t>COMMON_CHAPTER_PAGE_TEXT_FMT</t>
   </si>
   <si>
-    <t>공용 챕터 페이지 텍스트 형식</t>
-  </si>
-  <si>
     <t>챕터 {0}/{1}</t>
   </si>
   <si>
     <t>Chapter {0}/{1}</t>
   </si>
   <si>
+    <t>상점 팝업 타이틀</t>
+  </si>
+  <si>
     <t>STORE_P_TITLE</t>
   </si>
   <si>
-    <t>상점 팝업 타이틀</t>
+    <t>설정 팝업 타이틀</t>
   </si>
   <si>
     <t>SETTINGS_P_TITLE</t>
   </si>
   <si>
-    <t>설정 팝업 타이틀</t>
-  </si>
-  <si>
     <t>설정</t>
   </si>
   <si>
     <t>Settings</t>
   </si>
   <si>
+    <t>동기화 팝업 타이틀</t>
+  </si>
+  <si>
     <t>SYNC_P_TITLE</t>
   </si>
   <si>
-    <t>동기화 팝업 타이틀</t>
+    <t>일일 미션 팝업 타이틀</t>
   </si>
   <si>
     <t>DAILY_MP_TITLE</t>
   </si>
   <si>
-    <t>일일 미션 팝업 타이틀</t>
-  </si>
-  <si>
     <t>일일 미션</t>
   </si>
   <si>
     <t>Daily Mission</t>
   </si>
   <si>
+    <t>무료 보상 팝업 타이틀</t>
+  </si>
+  <si>
     <t>FREE_RP_TITLE</t>
   </si>
   <si>
-    <t>무료 보상 팝업 타이틀</t>
-  </si>
-  <si>
     <t>무료 보상</t>
   </si>
   <si>
     <t>Free Reward</t>
   </si>
   <si>
+    <t>일일 보상 팝업 타이틀</t>
+  </si>
+  <si>
     <t>DAILY_RP_TITLE</t>
   </si>
   <si>
-    <t>일일 보상 팝업 타이틀</t>
-  </si>
-  <si>
     <t>일일 보상</t>
   </si>
   <si>
     <t>Daily Reward</t>
   </si>
   <si>
+    <t>판매 코인 팝업 타이틀</t>
+  </si>
+  <si>
     <t>SALE_CP_TITLE</t>
   </si>
   <si>
-    <t>판매 코인 팝업 타이틀</t>
-  </si>
-  <si>
     <t>판매 코인</t>
   </si>
   <si>
     <t>Sale Coins</t>
   </si>
   <si>
+    <t>이어하기 팝업 타이틀</t>
+  </si>
+  <si>
     <t>CONTINUE_P_TITLE</t>
   </si>
   <si>
-    <t>이어하기 팝업 타이틀</t>
+    <t>결과 팝업 제목</t>
   </si>
   <si>
     <t>RESULT_P_TITLE</t>
-  </si>
-  <si>
-    <t>결과 팝업 제목</t>
   </si>
 </sst>
 </file>
@@ -919,6 +919,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -998,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1025,13 +1026,19 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1060,7 +1067,9 @@
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1294,14 +1303,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.71"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="98.14"/>
-    <col customWidth="1" min="5" max="5" width="112.0"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col customWidth="1" min="2" max="2" width="14.38"/>
+    <col customWidth="1" min="3" max="3" width="32.63"/>
+    <col customWidth="1" min="4" max="4" width="85.88"/>
+    <col customWidth="1" min="5" max="5" width="98.0"/>
+    <col customWidth="1" min="6" max="26" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1416,19 +1425,19 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>0.0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="7"/>
@@ -1453,19 +1462,19 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>0.0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7"/>
@@ -1493,16 +1502,16 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>0.0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="7"/>
@@ -1687,7 +1696,7 @@
       <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="7"/>
@@ -1749,7 +1758,7 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6">
@@ -1786,7 +1795,7 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="6">
@@ -1971,2187 +1980,2187 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="12">
         <v>0.0</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="15">
         <v>0.0</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="18">
         <v>0.0</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="18">
         <v>0.0</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="18">
         <v>0.0</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="18">
         <v>0.0</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="18">
         <v>0.0</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="18">
         <v>0.0</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="18">
         <v>0.0</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="18">
         <v>0.0</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="18">
         <v>0.0</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="18">
         <v>0.0</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="18">
         <v>0.0</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="18">
         <v>0.0</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="18">
         <v>0.0</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="18">
         <v>0.0</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="18">
         <v>0.0</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="18">
         <v>0.0</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="18">
         <v>0.0</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="18">
         <v>0.0</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="18">
         <v>0.0</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="18">
         <v>0.0</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="18">
         <v>0.0</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="18">
         <v>0.0</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="18">
         <v>0.0</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="18">
         <v>0.0</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="18">
         <v>0.0</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="18">
         <v>0.0</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="18">
         <v>0.0</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="18">
         <v>0.0</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="18">
         <v>0.0</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="18">
         <v>0.0</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="18">
         <v>0.0</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="18">
         <v>0.0</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="18">
         <v>0.0</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="18">
         <v>0.0</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="18">
         <v>0.0</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="18">
         <v>0.0</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="18">
         <v>0.0</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="18">
         <v>0.0</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="18">
         <v>0.0</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="18">
         <v>0.0</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="18">
         <v>0.0</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="18">
         <v>0.0</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="18">
         <v>0.0</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="18">
         <v>0.0</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="18">
         <v>0.0</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="18">
         <v>0.0</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="18">
         <v>0.0</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="21">
         <v>0.0</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="20"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="24">
         <v>0.0</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="26">
         <v>0.0</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="26"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="26"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B71" s="26">
         <v>0.0</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="26">
         <v>0.0</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="26"/>
+      <c r="W72" s="26"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="26"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B73" s="26">
         <v>0.0</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="26"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="26"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="26">
         <v>0.0</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="26"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="26"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="26">
         <v>0.0</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="28">
         <v>0.0</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="E76" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="25"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="31">
         <v>0.0</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="32"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
       <c r="A78" s="1"/>
@@ -10276,9 +10285,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
